--- a/resources/experiment 2/metrics/R2/average time/Enfermedad renal terminal.xlsx
+++ b/resources/experiment 2/metrics/R2/average time/Enfermedad renal terminal.xlsx
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9411526271959429</v>
+        <v>0.9987132149106159</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9411526271959429</v>
+        <v>0.9985906254308659</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9411526271959429</v>
+        <v>0.9837216411600668</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9990683560733536</v>
+        <v>0.998282425620188</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9990683560733536</v>
+        <v>0.9981599426091257</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9990683560733536</v>
+        <v>0.9643030155437726</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8397279377315719</v>
+        <v>0.9990435108663021</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8397279377315719</v>
+        <v>0.9990507129691008</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8397279377315719</v>
+        <v>0.9983776349842937</v>
       </c>
     </row>
   </sheetData>
